--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4122076.613971559</v>
+        <v>4120196.43420123</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.30359441860678</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.2559520454605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>229.7275059823063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301261</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.888004941518597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.652855120685</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>56.57756245340212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498001</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15.96814369039119</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>52.26593503209679</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>73.66308659887159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17.78458198347552</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>29.95674689784934</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856062</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.05299550515274</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>71.69883483707765</v>
+        <v>29.95674689784902</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418248</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>23.92529519634892</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>183.9479879391031</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>207.5440020263834</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729165</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>93.09229526309394</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418248</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>32.17260554604507</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418248</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808142</v>
+        <v>77.54261572246237</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
         <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>90.66780726750923</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>207.5440020263834</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>688.4561315142857</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>319.493614573874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.055971578407</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.271337979254</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.308821038842</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1928.871178043375</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
         <v>548.527081850681</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,19 +5033,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,13 +5063,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.8811773957805</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>413.8811773957805</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>263.7645379834447</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>263.7645379834447</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>263.7645379834448</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>263.7645379834448</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>113.3465295313881</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>1044.311772267568</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X13" t="n">
-        <v>816.3222213695503</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.5296422260202</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688073</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.513998854602</v>
+        <v>755.1831334811263</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.513998854602</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,25 +5516,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.0626711058811</v>
+        <v>285.2604416327765</v>
       </c>
       <c r="C19" t="n">
-        <v>609.0626711058811</v>
+        <v>127.4764317611438</v>
       </c>
       <c r="D19" t="n">
-        <v>470.0982047498194</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>333.3372842237005</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R19" t="n">
-        <v>1560.042071981625</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S19" t="n">
-        <v>1560.042071981625</v>
+        <v>1297.667461647464</v>
       </c>
       <c r="T19" t="n">
-        <v>1347.408829827405</v>
+        <v>1085.034219493244</v>
       </c>
       <c r="U19" t="n">
-        <v>1069.432364097237</v>
+        <v>807.057753763076</v>
       </c>
       <c r="V19" t="n">
-        <v>825.9000489476243</v>
+        <v>563.5254386134633</v>
       </c>
       <c r="W19" t="n">
-        <v>825.9000489476243</v>
+        <v>285.2604416327765</v>
       </c>
       <c r="X19" t="n">
-        <v>609.0626711058811</v>
+        <v>285.2604416327765</v>
       </c>
       <c r="Y19" t="n">
-        <v>609.0626711058811</v>
+        <v>285.2604416327765</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,31 +5817,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>339.7502131046252</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>739.1886971874542</v>
+        <v>285.2604416327762</v>
       </c>
       <c r="C22" t="n">
-        <v>581.4046873158213</v>
+        <v>127.4764317611434</v>
       </c>
       <c r="D22" t="n">
-        <v>508.9816218238237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>372.2207012977046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>236.4829268560685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>236.4829268560685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M22" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029362</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1397.590392029362</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>1397.590392029362</v>
+        <v>807.0577537630755</v>
       </c>
       <c r="V22" t="n">
-        <v>1397.590392029362</v>
+        <v>563.5254386134628</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.325395048676</v>
+        <v>285.2604416327762</v>
       </c>
       <c r="X22" t="n">
-        <v>1119.325395048676</v>
+        <v>285.2604416327762</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6849889614197</v>
+        <v>285.2604416327762</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6005,16 +6005,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.836466556558</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
         <v>2320.788110039405</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>668.969177525399</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>511.1851676537663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>372.2207012977046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>372.2207012977046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>236.4829268560684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>236.4829268560684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366498</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937155</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.784955196936</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6166,31 +6166,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
         <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.423427184566</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>1095.446961454398</v>
+        <v>999.1511014518065</v>
       </c>
       <c r="V25" t="n">
-        <v>1095.446961454398</v>
+        <v>755.6187863021938</v>
       </c>
       <c r="W25" t="n">
-        <v>1095.446961454398</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="X25" t="n">
-        <v>878.609583612655</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="Y25" t="n">
-        <v>668.969177525399</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>539.5926371926334</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>846.9127704725951</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>921.0480937116597</v>
+        <v>531.0278572538202</v>
       </c>
       <c r="C28" t="n">
-        <v>763.2640838400268</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="D28" t="n">
-        <v>624.2996174839652</v>
+        <v>373.2438473821874</v>
       </c>
       <c r="E28" t="n">
-        <v>487.5386969578462</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="F28" t="n">
-        <v>393.5060754799737</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
         <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
@@ -6388,10 +6388,10 @@
         <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172989</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.784955196936</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1586.358229057536</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U28" t="n">
-        <v>1308.381763327369</v>
+        <v>807.0577537630744</v>
       </c>
       <c r="V28" t="n">
-        <v>1308.381763327369</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="W28" t="n">
-        <v>1308.381763327369</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="X28" t="n">
-        <v>1091.544385485625</v>
+        <v>531.0278572538202</v>
       </c>
       <c r="Y28" t="n">
-        <v>1091.544385485625</v>
+        <v>531.0278572538202</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,34 +6449,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>498.9056400965593</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030233</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.2083137382491</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>512.2083137382491</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>373.2438473821875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>236.4829268560685</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>236.4829268560685</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>236.4829268560685</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6622,10 +6622,10 @@
         <v>120.5300287366499</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937156</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172992</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M31" t="n">
         <v>822.7849551969362</v>
@@ -6643,28 +6643,28 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
-        <v>1486.435298675636</v>
+        <v>1508.032354590403</v>
       </c>
       <c r="S31" t="n">
-        <v>1486.435298675636</v>
+        <v>1319.264517562229</v>
       </c>
       <c r="T31" t="n">
-        <v>1273.802056521416</v>
+        <v>1106.631275408009</v>
       </c>
       <c r="U31" t="n">
-        <v>1273.802056521416</v>
+        <v>828.6548096778411</v>
       </c>
       <c r="V31" t="n">
-        <v>1030.269741371803</v>
+        <v>585.1224945282283</v>
       </c>
       <c r="W31" t="n">
-        <v>938.6860976672483</v>
+        <v>306.8574975475419</v>
       </c>
       <c r="X31" t="n">
-        <v>721.8487198255051</v>
+        <v>306.8574975475419</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.2083137382491</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.468242641993</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506725</v>
@@ -6844,25 +6844,25 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,22 +7163,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7187,7 +7187,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7427,34 +7427,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
         <v>2112.811595180915</v>
@@ -7543,64 +7543,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,25 +7819,25 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>52.49733361305235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.6026921294533</v>
       </c>
       <c r="O15" t="n">
-        <v>253.7371603504737</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>32.78140656352423</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>202.5230052237931</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>230.7151863772027</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359983</v>
       </c>
       <c r="M24" t="n">
-        <v>398.9629823660895</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>5.100663089359642</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>87.16935584025379</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,13 +10431,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.75994765618341</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>369.0893880493732</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>73.53204524670082</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>50.62661940943605</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>171.2966883299256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>94.45110177388079</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>234.2570633044942</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>178.4745567249564</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>207.9250734055616</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>107.6180747946516</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>72.87070557292873</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
         <v>207.5440020263834</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.87598685542336</v>
+        <v>107.6180747946519</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856066</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808146</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.196701072866</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981167</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
         <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808141</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.5816145363289</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.24871313376289</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41.28810143412593</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>182.4963985172807</v>
       </c>
       <c r="Y28" t="n">
         <v>207.5440020263834</v>
@@ -24841,10 +24841,10 @@
         <v>156.2061697729165</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
         <v>134.3803966972199</v>
@@ -24853,10 +24853,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.38108535561905</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>184.8145397433704</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632377.7105480878</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632377.7105480876</v>
+        <v>632377.7105480877</v>
       </c>
     </row>
     <row r="9">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554811</v>
       </c>
       <c r="H2" t="n">
         <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554812</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554812</v>
       </c>
       <c r="K2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.725617677</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176766</v>
@@ -26350,10 +26350,10 @@
         <v>800515.7256176766</v>
       </c>
       <c r="O2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="P2" t="n">
         <v>800515.7256176767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800515.7256176769</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,16 +26375,16 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569092</v>
+        <v>8832.521060569145</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371246</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
         <v>25807.53208971001</v>
@@ -26436,28 +26436,28 @@
         <v>25807.53208971</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971002</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="J4" t="n">
         <v>25807.53208971002</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208970998</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819125</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819114</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>92915.50246501787</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92915.50246501787</v>
+      </c>
+      <c r="I5" t="n">
         <v>92915.50246501785</v>
-      </c>
-      <c r="H5" t="n">
-        <v>92915.50246501785</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501785</v>
@@ -26497,7 +26497,7 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680202</v>
+        <v>-37944.09944680225</v>
       </c>
       <c r="C6" t="n">
         <v>552023.7797677425</v>
@@ -26528,40 +26528,40 @@
         <v>552023.7797677425</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760488</v>
+        <v>123087.2373500764</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529453</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="G6" t="n">
-        <v>641110.4111401844</v>
+        <v>641028.7450918196</v>
       </c>
       <c r="H6" t="n">
-        <v>649942.9322007536</v>
+        <v>649861.266152389</v>
       </c>
       <c r="I6" t="n">
-        <v>649942.9322007535</v>
+        <v>649861.266152389</v>
       </c>
       <c r="J6" t="n">
-        <v>473519.7130081607</v>
+        <v>473438.0469597959</v>
       </c>
       <c r="K6" t="n">
-        <v>649942.9322007535</v>
+        <v>649861.2661523889</v>
       </c>
       <c r="L6" t="n">
-        <v>603701.7128657476</v>
+        <v>603701.712865748</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.2097356229</v>
+        <v>523406.2097356227</v>
       </c>
       <c r="N6" t="n">
         <v>658207.22496946</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694602</v>
+        <v>658207.2249694598</v>
       </c>
       <c r="P6" t="n">
-        <v>658207.2249694603</v>
+        <v>658207.22496946</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
         <v>11.0406513257114</v>
@@ -26713,19 +26713,19 @@
         <v>11.04065132571137</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>264.3794472020762</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>17.88169127836753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>124.9555356383767</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.2359645635688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834291</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.349933714535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212927</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>229.9454358831889</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571137</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0727722009916</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>271.3017255626798</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35510,7 +35510,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>446.7972655274663</v>
       </c>
       <c r="O15" t="n">
-        <v>536.1008625915819</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,13 +35808,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1451088046324</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>409.6164201553179</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>541.1395634276691</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127686</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M22" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313149</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758608</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453843</v>
       </c>
       <c r="M24" t="n">
-        <v>709.3873594165557</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127691</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K25" t="n">
         <v>162.7430798556219</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758614</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>254.358368045384</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K28" t="n">
         <v>162.7430798556219</v>
@@ -36765,13 +36765,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
         <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758612</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>237.744794428193</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K31" t="n">
         <v>162.7430798556219</v>
@@ -37002,13 +37002,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
         <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758612</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.7729804412575</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>481.9867828282176</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>322.7897502027251</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>383.821192807449</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>453.6603905710338</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>71.38553859468891</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
